--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail10 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>4.540679132649653e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.255372367939727</v>
+        <v>2.933455664470458e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.859182978984459</v>
+        <v>6.28806869188552e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.933455664470458e-06</v>
+        <v>0.1014261521781408</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.28806869188552e-06</v>
+        <v>0.3634400688196455</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1014261521781408</v>
+        <v>0.1421255044911068</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3634400688196455</v>
+        <v>1.686010703841945</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1421255044911068</v>
+        <v>1.569437156373959</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.592486511871664</v>
+        <v>4.100640202731409</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.569437156373959</v>
+        <v>3.711623608007996e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.100640202731409</v>
+        <v>14823250.54559802</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.711623608007996e-14</v>
+        <v>7.745221128032277e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>14823250.54559802</v>
+        <v>8.155504408654185</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.745221128032277e-06</v>
+        <v>0.0001188937209987259</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8.155504408654185</v>
+        <v>9.631622923802539</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001188937209987259</v>
+        <v>1.413569551577305</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.631622923802539</v>
+        <v>0.01102955175000152</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.413569551577305</v>
+        <v>3.319631222338485</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01102955175000152</v>
+        <v>0.9527731967371171</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.319631222338485</v>
+        <v>1.787413862449098</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9527731967371171</v>
+        <v>7</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.787413862449098</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2098938266044454</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>3.844475519396785e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.2910537483675864</v>
+        <v>2.117874970286846e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.1062865812466574</v>
+        <v>6.326765317934594e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.117874970286846e-06</v>
+        <v>0.08281047717391114</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.326765317934594e-06</v>
+        <v>0.3414079867879379</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08281047717391114</v>
+        <v>0.1231756028213213</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3414079867879379</v>
+        <v>1.671139671847065</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1231756028213213</v>
+        <v>1.605442094984286</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.578991773337997</v>
+        <v>4.097784452631847</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.605442094984286</v>
+        <v>3.716798679074391e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.097784452631847</v>
+        <v>14719705.45390188</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.716798679074391e-14</v>
+        <v>7.733901239711966e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>14719705.45390188</v>
+        <v>8.05317761240347</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.733901239711966e-06</v>
+        <v>0.0001071292729308554</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.05317761240347</v>
+        <v>10.42288213164428</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001071292729308554</v>
+        <v>1.321668236276428</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.42288213164428</v>
+        <v>0.01163814625165022</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.321668236276428</v>
+        <v>3.327121142419839</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01163814625165022</v>
+        <v>0.9522233616536033</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.327121142419839</v>
+        <v>1.753388961638955</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9522233616536033</v>
+        <v>7</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.753388961638955</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2317796870180552</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>3.542633835798917e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.09354839225413691</v>
+        <v>1.441319868503122e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.416800293688302</v>
+        <v>6.35238829300018e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.441319868503122e-06</v>
+        <v>0.0559818627308212</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.35238829300018e-06</v>
+        <v>0.2853156270081917</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0559818627308212</v>
+        <v>0.08434400272291617</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2853156270081917</v>
+        <v>1.668897647889261</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08434400272291617</v>
+        <v>1.552643242124005</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.580545572540459</v>
+        <v>4.1483171755221</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.552643242124005</v>
+        <v>3.626797849607563e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.1483171755221</v>
+        <v>15022011.40867351</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.626797849607563e-14</v>
+        <v>7.561186410621375e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>15022011.40867351</v>
+        <v>8.184262012422366</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.561186410621375e-06</v>
+        <v>0.0001048719692901818</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8.184262012422366</v>
+        <v>10.87647560651449</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001048719692901818</v>
+        <v>1.30846558195745</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.87647560651449</v>
+        <v>0.01240611502873724</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.30846558195745</v>
+        <v>3.339285590324633</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01240611502873724</v>
+        <v>0.9530898475073615</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.339285590324633</v>
+        <v>1.782147191900599</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9530898475073615</v>
+        <v>16</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.782147191900599</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2448695040009968</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>3.46988482775815e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.08304553277886045</v>
+        <v>1.015760866721051e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.501781747645176</v>
+        <v>6.367135359044581e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.015760866721051e-06</v>
+        <v>0.0293474472064097</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.367135359044581e-06</v>
+        <v>0.2176659004088484</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0293474472064097</v>
+        <v>0.04812935292819952</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2176659004088484</v>
+        <v>1.672339242626586</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04812935292819952</v>
+        <v>1.508820921390331</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.587100039051178</v>
+        <v>4.303854893821347</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.508820921390331</v>
+        <v>3.36939570436793e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.303854893821347</v>
+        <v>16214006.84777975</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.36939570436793e-14</v>
+        <v>7.013217687131928e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>16214006.84777975</v>
+        <v>8.857939751548797</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.013217687131928e-06</v>
+        <v>0.0001105790086817707</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8.857939751548797</v>
+        <v>11.94874156042597</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001105790086817707</v>
+        <v>1.26404740133346</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.94874156042597</v>
+        <v>0.01578763321008532</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.26404740133346</v>
+        <v>3.302789126756156</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01578763321008532</v>
+        <v>0.9529538308400065</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.302789126756156</v>
+        <v>1.783217903953297</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9529538308400065</v>
+        <v>16</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.783217903953297</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2588496648915087</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>3.474032225907744e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.03513429690377076</v>
+        <v>1.015760866721051e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.513139000165658</v>
+        <v>6.373672694014887e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.015760866721051e-06</v>
+        <v>0.009711039566145127</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.373672694014887e-06</v>
+        <v>0.1702227040303985</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.009711039566145127</v>
+        <v>0.02902132413707306</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1702227040303985</v>
+        <v>1.68472110198987</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02902132413707306</v>
+        <v>1.474237252543074</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.598053658649332</v>
+        <v>4.698903853477706</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.474237252543074</v>
+        <v>2.8266636966802e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.698903853477706</v>
+        <v>19434646.24209729</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.8266636966802e-14</v>
+        <v>5.877559724099706e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>19434646.24209729</v>
+        <v>10.67646352963304</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.877559724099706e-06</v>
+        <v>0.0001261059024358099</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10.67646352963304</v>
+        <v>12.49354197638873</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001261059024358099</v>
+        <v>1.288315232220085</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.49354197638873</v>
+        <v>0.01968369264259049</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.288315232220085</v>
+        <v>3.235647091897422</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01968369264259049</v>
+        <v>0.9540573185332053</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.235647091897422</v>
+        <v>1.734305655399573</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9540573185332053</v>
+        <v>16</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.734305655399573</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2586490069936352</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>3.477348414405308e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.02809512139043741</v>
+        <v>1.015760866721051e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.51857379670958</v>
+        <v>6.37459089520403e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.015760866721051e-06</v>
+        <v>-0.003422599550389605</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.37459089520403e-06</v>
+        <v>0.1442350228869828</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.003422599550389605</v>
+        <v>0.02079510924957455</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1442350228869828</v>
+        <v>1.69632041680441</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02079510924957455</v>
+        <v>1.482706017375739</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.613248768571235</v>
+        <v>5.134214059333332</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.482706017375739</v>
+        <v>1.973751657597483e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.134214059333332</v>
+        <v>27892861.80940752</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.973751657597483e-14</v>
+        <v>4.09936056346612e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>27892861.80940752</v>
+        <v>15.35601961294845</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.09936056346612e-06</v>
+        <v>0.0001089565968014455</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>15.35601961294845</v>
+        <v>11.50035373394532</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001089565968014455</v>
+        <v>1.292168475864726</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.50035373394532</v>
+        <v>0.01441039639850231</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.292168475864726</v>
+        <v>3.330912630449703</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01441039639850231</v>
+        <v>0.9547013797816776</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.330912630449703</v>
+        <v>1.743111739010365</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9547013797816776</v>
+        <v>16</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.743111739010365</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2676893899742852</v>
       </c>
     </row>
@@ -4881,72 +4833,66 @@
         <v>3.456835147245245e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.03853325951757977</v>
+        <v>1.015760866721051e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.497341307649753</v>
+        <v>6.371838319364437e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.015760866721051e-06</v>
+        <v>-0.01169867095547525</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.371838319364437e-06</v>
+        <v>0.133002045012945</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01169867095547525</v>
+        <v>0.01781920752082226</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.133002045012945</v>
+        <v>1.739109808583241</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01781920752082226</v>
+        <v>1.657730954532845</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.663831612508556</v>
+        <v>4.251598963631137</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.657730954532845</v>
+        <v>1.965243937842209e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.251598963631137</v>
+        <v>27745016.923334</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.965243937842209e-14</v>
+        <v>4.167111019147598e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>27745016.923334</v>
+        <v>15.12817199336556</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.167111019147598e-06</v>
+        <v>9.862985316050286e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>15.12817199336556</v>
+        <v>9.363645770644489</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9.862985316050286e-05</v>
+        <v>1.41285212490092</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.363645770644489</v>
+        <v>0.008647654666135849</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.41285212490092</v>
+        <v>3.3984012762735</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008647654666135849</v>
+        <v>0.9549556063629193</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.3984012762735</v>
+        <v>1.740869572278484</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9549556063629193</v>
+        <v>15</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.740869572278484</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.263129907705726</v>
       </c>
     </row>
@@ -4961,72 +4907,66 @@
         <v>3.412622804982627e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.0452977376728908</v>
+        <v>1.015760866721051e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.468698489828964</v>
+        <v>6.366939230759683e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.015760866721051e-06</v>
+        <v>-0.01622711578412453</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.366939230759683e-06</v>
+        <v>0.1302745432530589</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.01622711578412453</v>
+        <v>0.01723302690474687</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1302745432530589</v>
+        <v>1.74359278835329</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01723302690474687</v>
+        <v>1.573669254238323</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.674315159536918</v>
+        <v>4.106601785887375</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.573669254238323</v>
+        <v>2.252843081617694e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.106601785887375</v>
+        <v>24188485.83530911</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.252843081617694e-14</v>
+        <v>4.77692884637488e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>24188485.83530911</v>
+        <v>13.18099844048284</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.77692884637488e-06</v>
+        <v>9.784889218520012e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>13.18099844048284</v>
+        <v>8.975396956461717</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>9.784889218520012e-05</v>
+        <v>1.506798844367866</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.975396956461717</v>
+        <v>0.007882486645906912</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.506798844367866</v>
+        <v>3.411523543249103</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.007882486645906912</v>
+        <v>0.9548588123385252</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.411523543249103</v>
+        <v>1.734358500183549</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9548588123385252</v>
+        <v>12</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.734358500183549</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2629498186011824</v>
       </c>
     </row>
@@ -5403,7 +5343,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.400445720008953</v>
+        <v>1.406231649498</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.809352176325545</v>
@@ -5492,7 +5432,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.378981184753651</v>
+        <v>1.375644298668395</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.802303536853531</v>
@@ -5581,7 +5521,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.365059340169081</v>
+        <v>1.361656958241985</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.828753910911824</v>
@@ -5670,7 +5610,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.369467825020078</v>
+        <v>1.368099328102085</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.781612320180957</v>
@@ -5759,7 +5699,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.365018942291873</v>
+        <v>1.360564970095267</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.788006530337321</v>
@@ -5848,7 +5788,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.36884853491029</v>
+        <v>1.362761345124474</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.814835958896229</v>
@@ -5937,7 +5877,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.366651758422541</v>
+        <v>1.359999082643894</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.782614437096296</v>
@@ -6026,7 +5966,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.367340788957664</v>
+        <v>1.357755283571352</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.783233674759231</v>
@@ -6115,7 +6055,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.3747253527238</v>
+        <v>1.365814478665205</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.788645472595215</v>
@@ -6204,7 +6144,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.371100809136935</v>
+        <v>1.362631738254462</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.790232965042573</v>
@@ -6293,7 +6233,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.368183340716136</v>
+        <v>1.370209158249399</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.792123501183292</v>
@@ -6382,7 +6322,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.370583084481494</v>
+        <v>1.372087765101606</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.773358890239858</v>
@@ -6471,7 +6411,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.38327063074687</v>
+        <v>1.385524268822648</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.762890060635784</v>
@@ -6560,7 +6500,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.385851485881386</v>
+        <v>1.388483990417246</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.762649886416708</v>
@@ -6649,7 +6589,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.486052385888588</v>
+        <v>1.477527562466831</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.450316218113285</v>
@@ -6738,7 +6678,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.502895645695886</v>
+        <v>1.492474562147696</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.431881275299995</v>
@@ -6827,7 +6767,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.534602823812068</v>
+        <v>1.528756022239682</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.214778745112616</v>
@@ -6916,7 +6856,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.569090329900793</v>
+        <v>1.553159150902993</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.550466856710166</v>
@@ -7005,7 +6945,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.556705430915257</v>
+        <v>1.550305390283604</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.57060497379783</v>
@@ -7094,7 +7034,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554944569464405</v>
+        <v>1.542006340304456</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.493719114279668</v>
@@ -7183,7 +7123,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.581474885413793</v>
+        <v>1.568556331323639</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.513285332839033</v>
@@ -7272,7 +7212,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.579245420171724</v>
+        <v>1.566156004656657</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.52107268930163</v>
@@ -7361,7 +7301,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.58825636675885</v>
+        <v>1.57852265113993</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.453003232127323</v>
@@ -7450,7 +7390,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.603515609668173</v>
+        <v>1.598411771379214</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.598056700645184</v>
@@ -7539,7 +7479,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.608566186136583</v>
+        <v>1.600513048477118</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.460112984722457</v>
@@ -7628,7 +7568,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.660672699403352</v>
+        <v>1.63936172765882</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.696945035244156</v>
@@ -7717,7 +7657,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.66168196344972</v>
+        <v>1.64054134032423</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.720310504912951</v>
@@ -7806,7 +7746,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.667532448406268</v>
+        <v>1.644229348440207</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.764904138209088</v>
@@ -7895,7 +7835,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.666111476783281</v>
+        <v>1.64649657050797</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.790315220438811</v>
@@ -7984,7 +7924,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.673914110494193</v>
+        <v>1.654623604999071</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.686835387672416</v>
@@ -8073,7 +8013,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.651262820648062</v>
+        <v>1.627982442949169</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.71812867309419</v>
@@ -8162,7 +8102,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.638824937643151</v>
+        <v>1.612253079748592</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.792436827586309</v>
@@ -8251,7 +8191,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.672896740160932</v>
+        <v>1.634415159389374</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.591123109742139</v>
@@ -8340,7 +8280,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.649960891919869</v>
+        <v>1.614323013464726</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.159140301762632</v>
@@ -8429,7 +8369,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.640371642227628</v>
+        <v>1.609027087188067</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.215410791082436</v>
@@ -8518,7 +8458,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.622941040847092</v>
+        <v>1.590936846379441</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.057800398816165</v>
@@ -8607,7 +8547,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618975059570103</v>
+        <v>1.583606212411358</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.887991124495894</v>
@@ -8696,7 +8636,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.600091445125132</v>
+        <v>1.569164737549432</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.747417705350176</v>
@@ -8785,7 +8725,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.594083017399925</v>
+        <v>1.563472094744423</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.964841836996883</v>
@@ -8874,7 +8814,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.581017514256203</v>
+        <v>1.544232277576908</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.907398020565002</v>
@@ -8963,7 +8903,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.577206973153063</v>
+        <v>1.540134387596242</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.803741228677361</v>
@@ -9052,7 +8992,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.560648013932993</v>
+        <v>1.52487379206193</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.918550400099476</v>
@@ -9141,7 +9081,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.548767929382223</v>
+        <v>1.510927923480124</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.842750300623662</v>
@@ -9230,7 +9170,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.544585680760154</v>
+        <v>1.500267666675904</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.984390803961986</v>
@@ -9319,7 +9259,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.537758131923746</v>
+        <v>1.491477397932298</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.713274086692078</v>
@@ -9408,7 +9348,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.545330537777194</v>
+        <v>1.502032675683547</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.832653971025602</v>
@@ -9497,7 +9437,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.54373784160477</v>
+        <v>1.503713695468876</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.767976337967966</v>
@@ -9586,7 +9526,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.548569953828475</v>
+        <v>1.509354306655074</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.92385382991483</v>
@@ -9675,7 +9615,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.558066255474915</v>
+        <v>1.516577292171186</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.756815267984269</v>
@@ -9764,7 +9704,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.546681060399585</v>
+        <v>1.514022527895184</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.889797519492246</v>
@@ -9853,7 +9793,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.561036111866507</v>
+        <v>1.528889875184523</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.773731874255933</v>
@@ -9942,7 +9882,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.562659965205905</v>
+        <v>1.530308782470665</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.788855660208251</v>
@@ -10031,7 +9971,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.564855530032917</v>
+        <v>1.521950779274608</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.846466662492676</v>
@@ -10317,7 +10257,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.394734042795394</v>
+        <v>1.415865500756326</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.687703633629304</v>
@@ -10406,7 +10346,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.400586297926971</v>
+        <v>1.411423482126398</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.708806559263802</v>
@@ -10495,7 +10435,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.37014445947424</v>
+        <v>1.382052748143282</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.724200107581211</v>
@@ -10584,7 +10524,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.364888778253881</v>
+        <v>1.378265988364122</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.726264121669499</v>
@@ -10673,7 +10613,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.346199939371917</v>
+        <v>1.356231201765372</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.718867464136961</v>
@@ -10762,7 +10702,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.355452385334698</v>
+        <v>1.366553875146697</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.721350326395981</v>
@@ -10851,7 +10791,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.358864639255976</v>
+        <v>1.371129187883533</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.694260381662023</v>
@@ -10940,7 +10880,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.342618058235162</v>
+        <v>1.349971127730164</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.68538229222784</v>
@@ -11029,7 +10969,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.332386338428942</v>
+        <v>1.338478313916865</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.685198670631991</v>
@@ -11118,7 +11058,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.331327811014768</v>
+        <v>1.340227403413529</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.68900427926663</v>
@@ -11207,7 +11147,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.320151123771183</v>
+        <v>1.33113909591067</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.703457413804803</v>
@@ -11296,7 +11236,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.31901682820573</v>
+        <v>1.328864438586436</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.692215351987087</v>
@@ -11385,7 +11325,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.338086226024598</v>
+        <v>1.349423767301546</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.683046085787145</v>
@@ -11474,7 +11414,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.338046909839018</v>
+        <v>1.349224694084445</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.675548030195729</v>
@@ -11563,7 +11503,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.446684475909965</v>
+        <v>1.44790599259192</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.249333130653011</v>
@@ -11652,7 +11592,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.460662278771495</v>
+        <v>1.460331040919075</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.175144492305879</v>
@@ -11741,7 +11681,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.500773262185782</v>
+        <v>1.508118446003088</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.957118260488367</v>
@@ -11830,7 +11770,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.56259577699606</v>
+        <v>1.55357230726091</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.425825757778996</v>
@@ -11919,7 +11859,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.534476336955368</v>
+        <v>1.543464037433233</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.360717206796888</v>
@@ -12008,7 +11948,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.536500369745591</v>
+        <v>1.545340429072176</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.42999795430003</v>
@@ -12097,7 +12037,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.525105948891856</v>
+        <v>1.53170519832441</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.420603685994754</v>
@@ -12186,7 +12126,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.532033714646079</v>
+        <v>1.535050457851679</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.371861957872979</v>
@@ -12275,7 +12215,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.566786062081691</v>
+        <v>1.569662285217332</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.29100530984544</v>
@@ -12364,7 +12304,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.58374873059986</v>
+        <v>1.590845391025828</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.287416849646136</v>
@@ -12453,7 +12393,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.60221393657796</v>
+        <v>1.600926294783619</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.361993439566168</v>
@@ -12542,7 +12482,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.673205233714872</v>
+        <v>1.662401217402173</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.552382519140599</v>
@@ -12631,7 +12571,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.669150943194581</v>
+        <v>1.656346275386432</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.559298167773104</v>
@@ -12720,7 +12660,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.666727576167126</v>
+        <v>1.649313003189788</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.550678120220799</v>
@@ -12809,7 +12749,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.673921636361664</v>
+        <v>1.653054143017791</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.512362799315373</v>
@@ -12898,7 +12838,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.676995020044078</v>
+        <v>1.660820436335889</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.453053557683412</v>
@@ -12987,7 +12927,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.636053891006807</v>
+        <v>1.614534527684851</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.416892969581801</v>
@@ -13076,7 +13016,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.624299127338532</v>
+        <v>1.599325508604854</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.622141754963038</v>
@@ -13165,7 +13105,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.671382595182087</v>
+        <v>1.636407879340076</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.645081887956954</v>
@@ -13254,7 +13194,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.672773896500385</v>
+        <v>1.636718837092033</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.568150316217289</v>
@@ -13343,7 +13283,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.669487806781498</v>
+        <v>1.635562504037487</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.702369646728832</v>
@@ -13432,7 +13372,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.673669692518761</v>
+        <v>1.636932585474804</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.455553167133362</v>
@@ -13521,7 +13461,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.659598075717836</v>
+        <v>1.616826754479713</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.508103848586787</v>
@@ -13610,7 +13550,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.608839150707616</v>
+        <v>1.57361779197188</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.579568211701844</v>
@@ -13699,7 +13639,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.599538679127479</v>
+        <v>1.567942495887918</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.473015674393376</v>
@@ -13788,7 +13728,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.584339446144842</v>
+        <v>1.553669750785216</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.540670049571968</v>
@@ -13877,7 +13817,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.576743634223214</v>
+        <v>1.546204552993204</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.406216855414745</v>
@@ -13966,7 +13906,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.547011316157222</v>
+        <v>1.522618924668314</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.605256191757706</v>
@@ -14055,7 +13995,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.516737728314671</v>
+        <v>1.492423805633697</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.637754698812036</v>
@@ -14144,7 +14084,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.512747694962971</v>
+        <v>1.480215267910266</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.558703732336738</v>
@@ -14233,7 +14173,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.511511256089219</v>
+        <v>1.478057185598662</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.410517953549258</v>
@@ -14322,7 +14262,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.534753580439245</v>
+        <v>1.50544000244401</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.614537905344951</v>
@@ -14411,7 +14351,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.536018589063177</v>
+        <v>1.511942388091774</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.585794825282964</v>
@@ -14500,7 +14440,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.544136476158501</v>
+        <v>1.520530967062553</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.606147582028134</v>
@@ -14589,7 +14529,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.535277437316819</v>
+        <v>1.501247199579293</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.554014576989007</v>
@@ -14678,7 +14618,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.51248363319862</v>
+        <v>1.488473978878455</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.491839902618128</v>
@@ -14767,7 +14707,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.504000679221538</v>
+        <v>1.482960607892338</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.61751846045538</v>
@@ -14856,7 +14796,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.502088847116098</v>
+        <v>1.484454908719383</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.41420063578332</v>
@@ -14945,7 +14885,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.511412190717712</v>
+        <v>1.482534544650701</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.655205406613555</v>
@@ -15231,7 +15171,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.470460190698802</v>
+        <v>1.479310230086519</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.760460514606222</v>
@@ -15320,7 +15260,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.447987483968513</v>
+        <v>1.446725889754923</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.76374788136574</v>
@@ -15409,7 +15349,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.420901725134356</v>
+        <v>1.420405260543067</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.788681752265709</v>
@@ -15498,7 +15438,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.422198406467193</v>
+        <v>1.420010793762915</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.785387635277859</v>
@@ -15587,7 +15527,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.401265513960412</v>
+        <v>1.391525481824493</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.748385080027103</v>
@@ -15676,7 +15616,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.403318491005625</v>
+        <v>1.391017774379953</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.768079422169732</v>
@@ -15765,7 +15705,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.390545138874257</v>
+        <v>1.375172605626396</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.73393157284547</v>
@@ -15854,7 +15794,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.378431543888915</v>
+        <v>1.361349968609319</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.729504892179835</v>
@@ -15943,7 +15883,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.367222158233954</v>
+        <v>1.349518031028874</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.718468621777924</v>
@@ -16032,7 +15972,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.3641568696903</v>
+        <v>1.350013627867588</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.714216358813062</v>
@@ -16121,7 +16061,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.354884423765155</v>
+        <v>1.350178299129754</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.724171538377893</v>
@@ -16210,7 +16150,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.349734009514665</v>
+        <v>1.344802002450994</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.70598414522088</v>
@@ -16299,7 +16239,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.365143957032876</v>
+        <v>1.361779444163608</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.705011527463751</v>
@@ -16388,7 +16328,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.370977839044778</v>
+        <v>1.369367026480706</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.69972839846638</v>
@@ -16477,7 +16417,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.484204028460223</v>
+        <v>1.467164543750422</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.295642596637208</v>
@@ -16566,7 +16506,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.500165961675076</v>
+        <v>1.479643255602524</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.284531283642689</v>
@@ -16655,7 +16595,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.527172922193543</v>
+        <v>1.510806962712171</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.062964649762873</v>
@@ -16744,7 +16684,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.580789056251605</v>
+        <v>1.549010343951405</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.542119790199372</v>
@@ -16833,7 +16773,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.56276205711729</v>
+        <v>1.549246168002302</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.442468859043583</v>
@@ -16922,7 +16862,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.560884058326078</v>
+        <v>1.547855968799578</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.53960519428607</v>
@@ -17011,7 +16951,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.572695633083853</v>
+        <v>1.559831406175016</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.461128643452253</v>
@@ -17100,7 +17040,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575690183764953</v>
+        <v>1.562588473597256</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.464749308723957</v>
@@ -17189,7 +17129,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.599995196821672</v>
+        <v>1.585234331358163</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.404751209185508</v>
@@ -17278,7 +17218,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.613766041146137</v>
+        <v>1.600735348359006</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.444854688278658</v>
@@ -17367,7 +17307,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.631492943008914</v>
+        <v>1.614215961097963</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.421230543099432</v>
@@ -17456,7 +17396,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.689761719342663</v>
+        <v>1.661100001586226</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.558486633824219</v>
@@ -17545,7 +17485,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.693744565675185</v>
+        <v>1.66880574034906</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.608253954309607</v>
@@ -17634,7 +17574,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.685325787623212</v>
+        <v>1.659098832623624</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.599682616903976</v>
@@ -17723,7 +17663,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.69004914384539</v>
+        <v>1.660895939654879</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.557009529108625</v>
@@ -17812,7 +17752,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.681253254863913</v>
+        <v>1.64901093671187</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.619358178989271</v>
@@ -17901,7 +17841,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.654498097634941</v>
+        <v>1.622105962333341</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.60613292355676</v>
@@ -17990,7 +17930,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.640546635828028</v>
+        <v>1.606153106210126</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.681946108462414</v>
@@ -18079,7 +18019,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.68699967207567</v>
+        <v>1.63473513916656</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.531429899478376</v>
@@ -18168,7 +18108,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.663755685623273</v>
+        <v>1.604791598723181</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.054151249812645</v>
@@ -18257,7 +18197,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.65402596949</v>
+        <v>1.593661338697663</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.810284668261824</v>
@@ -18346,7 +18286,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.64339403203665</v>
+        <v>1.585176376312437</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.8688063331298</v>
@@ -18435,7 +18375,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.621216779427885</v>
+        <v>1.559381901810126</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.072082711320699</v>
@@ -18524,7 +18464,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.579634092174495</v>
+        <v>1.52426166076684</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.561315991558897</v>
@@ -18613,7 +18553,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.575983829706044</v>
+        <v>1.516137447581019</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.658842593509378</v>
@@ -18702,7 +18642,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.561423882352642</v>
+        <v>1.488299653469788</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.73432451314028</v>
@@ -18791,7 +18731,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.557231629250492</v>
+        <v>1.481239610923881</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.70065552833622</v>
@@ -18880,7 +18820,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.535661941024331</v>
+        <v>1.463846694741641</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.651252580734238</v>
@@ -18969,7 +18909,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.525793218252375</v>
+        <v>1.447056700974586</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.717183385148204</v>
@@ -19058,7 +18998,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.526490751741128</v>
+        <v>1.442900163018362</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.716469318618023</v>
@@ -19147,7 +19087,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.523099995408901</v>
+        <v>1.439863821529705</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.632091555434708</v>
@@ -19236,7 +19176,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.534807304291822</v>
+        <v>1.453168226791041</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.717722356893558</v>
@@ -19325,7 +19265,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.537121404526206</v>
+        <v>1.456413771594128</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.693371558483094</v>
@@ -19414,7 +19354,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.53441800694717</v>
+        <v>1.461173612213111</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.659216327412471</v>
@@ -19503,7 +19443,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.533599586911736</v>
+        <v>1.465758127976384</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.67502105817656</v>
@@ -19592,7 +19532,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.519032570766578</v>
+        <v>1.463112287456066</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.69116536925961</v>
@@ -19681,7 +19621,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.52491751140536</v>
+        <v>1.470863825927705</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.704111213974627</v>
@@ -19770,7 +19710,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.536213299022567</v>
+        <v>1.482323052221519</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.679128434326402</v>
@@ -19859,7 +19799,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.545641048064547</v>
+        <v>1.482979199308495</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.741911826603216</v>
@@ -20145,7 +20085,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.457267829507171</v>
+        <v>1.444891504750955</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.738788821620077</v>
@@ -20234,7 +20174,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.434780506242152</v>
+        <v>1.414854511486592</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.74827776794593</v>
@@ -20323,7 +20263,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.40391814700908</v>
+        <v>1.389300118776875</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.770683215973135</v>
@@ -20412,7 +20352,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.401408926452112</v>
+        <v>1.388132481511914</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.764666571703004</v>
@@ -20501,7 +20441,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.401686626913305</v>
+        <v>1.387222938974757</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.759396135016438</v>
@@ -20590,7 +20530,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.402923746162828</v>
+        <v>1.383243353185479</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.779070092858944</v>
@@ -20679,7 +20619,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.387716978677543</v>
+        <v>1.363924388201648</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.735030912318637</v>
@@ -20768,7 +20708,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.381172383180063</v>
+        <v>1.353017603147913</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.740568455748124</v>
@@ -20857,7 +20797,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.370519031320258</v>
+        <v>1.346423114116492</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.729318416870119</v>
@@ -20946,7 +20886,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.358791164141933</v>
+        <v>1.339880237393726</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.719442355656198</v>
@@ -21035,7 +20975,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.350852739604678</v>
+        <v>1.343206336826816</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.716487885827243</v>
@@ -21124,7 +21064,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.351095904888281</v>
+        <v>1.342096600918936</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.715309981533245</v>
@@ -21213,7 +21153,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.365629697775588</v>
+        <v>1.357592852420545</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.712815490098482</v>
@@ -21302,7 +21242,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.371627897606023</v>
+        <v>1.366191313643132</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.692364012671848</v>
@@ -21391,7 +21331,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.47615923057625</v>
+        <v>1.44939581909955</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.365031143009293</v>
@@ -21480,7 +21420,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.477665366611814</v>
+        <v>1.450465517771115</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.197369465833164</v>
@@ -21569,7 +21509,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.502495038475351</v>
+        <v>1.476447807390317</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.018373449397166</v>
@@ -21658,7 +21598,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546238657059794</v>
+        <v>1.501862857460756</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.536306191389108</v>
@@ -21747,7 +21687,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.524667803800862</v>
+        <v>1.495974793542798</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.448644272538337</v>
@@ -21836,7 +21776,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.525696428489477</v>
+        <v>1.495540903565893</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.428650187580501</v>
@@ -21925,7 +21865,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.53319790416521</v>
+        <v>1.507645126584605</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.427613537461867</v>
@@ -22014,7 +21954,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.534694005131429</v>
+        <v>1.5044225787085</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.446522427828232</v>
@@ -22103,7 +22043,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.559362696939235</v>
+        <v>1.535210624367769</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.40446740831549</v>
@@ -22192,7 +22132,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.573944208664229</v>
+        <v>1.549717319607502</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.448461059215456</v>
@@ -22281,7 +22221,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.595265305373164</v>
+        <v>1.564113854143155</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.428175861294829</v>
@@ -22370,7 +22310,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.643332587952345</v>
+        <v>1.598451200419537</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.488786029998693</v>
@@ -22459,7 +22399,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.639620182420157</v>
+        <v>1.600356409808528</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.481713634196046</v>
@@ -22548,7 +22488,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.632797487278826</v>
+        <v>1.589743880413286</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.668980949703186</v>
@@ -22637,7 +22577,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.637455761101325</v>
+        <v>1.59288218587554</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.553709708295295</v>
@@ -22726,7 +22666,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.64503056078786</v>
+        <v>1.605625596274222</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.602674819978539</v>
@@ -22815,7 +22755,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.625173905992376</v>
+        <v>1.570203109430623</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.658141856047228</v>
@@ -22904,7 +22844,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.601002131434204</v>
+        <v>1.547715477451588</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.633630590969237</v>
@@ -22993,7 +22933,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.653985445311086</v>
+        <v>1.585479253703233</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.484597720048426</v>
@@ -23082,7 +23022,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.632898193071926</v>
+        <v>1.555458471866701</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.788416782710059</v>
@@ -23171,7 +23111,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.613811910974207</v>
+        <v>1.535255230950092</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.750695527367652</v>
@@ -23260,7 +23200,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.60739204023575</v>
+        <v>1.526906990880489</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.902573726887228</v>
@@ -23349,7 +23289,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.593894347270297</v>
+        <v>1.517056411651376</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.932506787851945</v>
@@ -23438,7 +23378,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.558138530904196</v>
+        <v>1.483201855144093</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.698376603809626</v>
@@ -23527,7 +23467,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.5519224142473</v>
+        <v>1.477139393519089</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.720125470373385</v>
@@ -23616,7 +23556,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.532017877142519</v>
+        <v>1.451271417919773</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.678727782840504</v>
@@ -23705,7 +23645,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.525295737955225</v>
+        <v>1.442443016841591</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.730676150521138</v>
@@ -23794,7 +23734,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.508445593643526</v>
+        <v>1.429109684795405</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.711379867083745</v>
@@ -23883,7 +23823,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.494108933752299</v>
+        <v>1.409493035425231</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.762940930509172</v>
@@ -23972,7 +23912,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.49418961437644</v>
+        <v>1.411079727021235</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.801628522245581</v>
@@ -24061,7 +24001,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.486374808898587</v>
+        <v>1.403694969952792</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.723259288416847</v>
@@ -24150,7 +24090,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.500241206869291</v>
+        <v>1.42336356908361</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.814803717403495</v>
@@ -24239,7 +24179,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.508755042234564</v>
+        <v>1.432374397944147</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.642857701230985</v>
@@ -24328,7 +24268,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.502062484799221</v>
+        <v>1.426088757698035</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.650434785657358</v>
@@ -24417,7 +24357,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.505956001068256</v>
+        <v>1.436322033033691</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.764398734830128</v>
@@ -24506,7 +24446,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.491040761908543</v>
+        <v>1.433283624367546</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.686636382837845</v>
@@ -24595,7 +24535,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.493300176249371</v>
+        <v>1.435957736248403</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.683563130603674</v>
@@ -24684,7 +24624,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.504399118779288</v>
+        <v>1.446215444943418</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.7281781593637</v>
@@ -24773,7 +24713,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.508102758256801</v>
+        <v>1.447063351788417</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.656013694377739</v>
@@ -25059,7 +24999,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.118889348247798</v>
+        <v>1.118067146578579</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.383953203153358</v>
@@ -25148,7 +25088,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.168007599810156</v>
+        <v>1.156560881737005</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.455488024325165</v>
@@ -25237,7 +25177,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.159863011594145</v>
+        <v>1.149003875292413</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.502138365233441</v>
@@ -25326,7 +25266,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.154618449391589</v>
+        <v>1.144682938582954</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.5037043536035</v>
@@ -25415,7 +25355,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.155755782592465</v>
+        <v>1.145471194518316</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.500279883942035</v>
@@ -25504,7 +25444,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.16458381777043</v>
+        <v>1.151779545476894</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.512263590662726</v>
@@ -25593,7 +25533,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.167071532282128</v>
+        <v>1.156199389996559</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.48969293006366</v>
@@ -25682,7 +25622,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.165155907426281</v>
+        <v>1.149909386593619</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.50333907003572</v>
@@ -25771,7 +25711,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.163403034531043</v>
+        <v>1.149512269841791</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.509362202760404</v>
@@ -25860,7 +25800,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.160616400003262</v>
+        <v>1.146517980417444</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.52092999070341</v>
@@ -25949,7 +25889,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.152764930782478</v>
+        <v>1.140109064242852</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.530159533394086</v>
@@ -26038,7 +25978,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.153850837053241</v>
+        <v>1.141262725983407</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.524978537368079</v>
@@ -26127,7 +26067,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.159692656342202</v>
+        <v>1.148047960201476</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.504693866437308</v>
@@ -26216,7 +26156,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.162748439867979</v>
+        <v>1.150879698180937</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.496788440609855</v>
@@ -26305,7 +26245,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.223936164198759</v>
+        <v>1.200287237799023</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.89653498992997</v>
@@ -26394,7 +26334,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.235506682283497</v>
+        <v>1.211578474435665</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.812501344256821</v>
@@ -26483,7 +26423,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.196628985857774</v>
+        <v>1.179088034253117</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.565511375332359</v>
@@ -26572,7 +26512,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.223003850455763</v>
+        <v>1.182974143962597</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.776970196472129</v>
@@ -26661,7 +26601,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.184288715552168</v>
+        <v>1.167358504173478</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.799531013068979</v>
@@ -26750,7 +26690,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.180690130963658</v>
+        <v>1.164130123388912</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.814161174575545</v>
@@ -26839,7 +26779,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.170125266571381</v>
+        <v>1.158721682669007</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.765827441026634</v>
@@ -26928,7 +26868,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.174056343067313</v>
+        <v>1.164483347042842</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.70917001682271</v>
@@ -27017,7 +26957,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.189476230597744</v>
+        <v>1.184828471520692</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.62311716354061</v>
@@ -27106,7 +27046,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.190590707108838</v>
+        <v>1.190079619609134</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.62471414309339</v>
@@ -27195,7 +27135,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.209066338276795</v>
+        <v>1.210614930850164</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.597848330267445</v>
@@ -27284,7 +27224,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.288892836521726</v>
+        <v>1.293262444303932</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.586498718089923</v>
@@ -27373,7 +27313,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.294704689671862</v>
+        <v>1.298902748180826</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.572696964756594</v>
@@ -27462,7 +27402,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.300307142703895</v>
+        <v>1.305655702915382</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.562201683449275</v>
@@ -27551,7 +27491,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.294732687575573</v>
+        <v>1.300976630923278</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.574495882376017</v>
@@ -27640,7 +27580,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.290757245627446</v>
+        <v>1.294937191146496</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.578215384177739</v>
@@ -27729,7 +27669,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.250366235092879</v>
+        <v>1.233591757457335</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.64907831131456</v>
@@ -27818,7 +27758,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.241833664345369</v>
+        <v>1.227781198687638</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.675765249769479</v>
@@ -27907,7 +27847,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.330800016559027</v>
+        <v>1.314898454193522</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.558985302555868</v>
@@ -27996,7 +27936,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.367621649928846</v>
+        <v>1.348662940386803</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.567950420990474</v>
@@ -28085,7 +28025,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.372960294496905</v>
+        <v>1.353303615760384</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.567379469777337</v>
@@ -28174,7 +28114,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.371349885621231</v>
+        <v>1.352531895993596</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.569898589710268</v>
@@ -28263,7 +28203,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.308171798591191</v>
+        <v>1.2930785649007</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.614184203548367</v>
@@ -28352,7 +28292,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.260708081663348</v>
+        <v>1.238708316146791</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.688265725467444</v>
@@ -28441,7 +28381,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.237741506363119</v>
+        <v>1.219248766552756</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.685229771611986</v>
@@ -28530,7 +28470,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.237435045889348</v>
+        <v>1.217289419509966</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.694568117091427</v>
@@ -28619,7 +28559,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.233009319381641</v>
+        <v>1.212595288973529</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.697957443480799</v>
@@ -28708,7 +28648,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.202517085879326</v>
+        <v>1.179084588952162</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.782121324007964</v>
@@ -28797,7 +28737,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.189594233132383</v>
+        <v>1.160437628628153</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.845168678515961</v>
@@ -28886,7 +28826,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.189305552312006</v>
+        <v>1.158479565832648</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.871884065614013</v>
@@ -28975,7 +28915,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.190752663528871</v>
+        <v>1.159495270776134</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.812511197915872</v>
@@ -29064,7 +29004,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.203624570150238</v>
+        <v>1.17778399178735</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.772751761997506</v>
@@ -29153,7 +29093,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.207536951799261</v>
+        <v>1.18002271735325</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.800144884440685</v>
@@ -29242,7 +29182,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.203493403811903</v>
+        <v>1.177671456348481</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.804794630100362</v>
@@ -29331,7 +29271,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.214399176937415</v>
+        <v>1.16980193068359</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.852210550680766</v>
@@ -29420,7 +29360,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.172464707828363</v>
+        <v>1.146536133004023</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.849800429084862</v>
@@ -29509,7 +29449,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.171882957376839</v>
+        <v>1.145259341595589</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.875443403618615</v>
@@ -29598,7 +29538,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.182327536616864</v>
+        <v>1.155103034031559</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.842952618175777</v>
@@ -29687,7 +29627,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.184880479563924</v>
+        <v>1.15203424307576</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.866711545683309</v>
@@ -29973,7 +29913,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.360828972389292</v>
+        <v>1.356848649933332</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.778898323814165</v>
@@ -30062,7 +30002,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.34734028274465</v>
+        <v>1.328932973605579</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.76431610076546</v>
@@ -30151,7 +30091,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.324667873938558</v>
+        <v>1.310994900325214</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.792958445118591</v>
@@ -30240,7 +30180,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.336306283205535</v>
+        <v>1.323750689803945</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.710147229966428</v>
@@ -30329,7 +30269,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.338985848923616</v>
+        <v>1.326509866002305</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.743493159053824</v>
@@ -30418,7 +30358,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.3423420245855</v>
+        <v>1.328324011114269</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.748942922334728</v>
@@ -30507,7 +30447,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.332591187862621</v>
+        <v>1.316244402564941</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.7358794577826</v>
@@ -30596,7 +30536,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.334887553044765</v>
+        <v>1.315001942788296</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.726737996234703</v>
@@ -30685,7 +30625,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.337658221482309</v>
+        <v>1.318650713966724</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.728966373557724</v>
@@ -30774,7 +30714,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.331762769628107</v>
+        <v>1.311471065871204</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.716782856619907</v>
@@ -30863,7 +30803,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.316604868278161</v>
+        <v>1.307174436882109</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.71582146072189</v>
@@ -30952,7 +30892,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.31950142008832</v>
+        <v>1.308494728557421</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.710841393007268</v>
@@ -31041,7 +30981,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.327157224618211</v>
+        <v>1.317487718753329</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.716665583564328</v>
@@ -31130,7 +31070,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.328562322682735</v>
+        <v>1.320888108405248</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.69511557585274</v>
@@ -31219,7 +31159,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.418045613717328</v>
+        <v>1.397848020500861</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.253510710857887</v>
@@ -31308,7 +31248,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.4307439345605</v>
+        <v>1.409574155299667</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.227420295973666</v>
@@ -31397,7 +31337,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.458613224698355</v>
+        <v>1.440975508736211</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.052450839007775</v>
@@ -31486,7 +31426,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.505254996877007</v>
+        <v>1.473910811487053</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.193249523100216</v>
@@ -31575,7 +31515,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.479339557858843</v>
+        <v>1.461814254546947</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.296819408959692</v>
@@ -31664,7 +31604,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.482501321250565</v>
+        <v>1.461608987982081</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.313427610291234</v>
@@ -31753,7 +31693,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.493211241724629</v>
+        <v>1.471148890556831</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.295959839540903</v>
@@ -31842,7 +31782,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.490834349176645</v>
+        <v>1.471291716547979</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.192816020397911</v>
@@ -31931,7 +31871,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.498512366823463</v>
+        <v>1.484296925557311</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.194603500759739</v>
@@ -32020,7 +31960,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.510360685919236</v>
+        <v>1.499212781337453</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.276461837570557</v>
@@ -32109,7 +32049,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.516926573749109</v>
+        <v>1.506286116344301</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.131903055856389</v>
@@ -32198,7 +32138,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.56869122212512</v>
+        <v>1.550491834470172</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.543730800371882</v>
@@ -32287,7 +32227,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.560847414861906</v>
+        <v>1.545174180605375</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.474476734889403</v>
@@ -32376,7 +32316,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.569317834329784</v>
+        <v>1.558359051001052</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.616221343111047</v>
@@ -32465,7 +32405,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.555201116226171</v>
+        <v>1.544733727028123</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.488972270350343</v>
@@ -32554,7 +32494,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.568474855134589</v>
+        <v>1.554999958492049</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.628274739345314</v>
@@ -32643,7 +32583,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.551839456225897</v>
+        <v>1.526804387133555</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.613320864153979</v>
@@ -32732,7 +32672,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.529422894146944</v>
+        <v>1.498485902093822</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.507226662282006</v>
@@ -32821,7 +32761,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.554527754302412</v>
+        <v>1.511466008223043</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.312470869404935</v>
@@ -32910,7 +32850,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.536249785049484</v>
+        <v>1.490839801604182</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.769002410419215</v>
@@ -32999,7 +32939,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.53438092140696</v>
+        <v>1.491693467603325</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.723113622981703</v>
@@ -33088,7 +33028,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.53467758160452</v>
+        <v>1.488728725751835</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.725720404976731</v>
@@ -33177,7 +33117,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.527786856343621</v>
+        <v>1.47775334856233</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.711434954305183</v>
@@ -33266,7 +33206,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.519065904367856</v>
+        <v>1.466825961748572</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.80812818008697</v>
@@ -33355,7 +33295,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.514399969336265</v>
+        <v>1.457817532494958</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.69431839986154</v>
@@ -33444,7 +33384,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.498347573787185</v>
+        <v>1.43656089656608</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.7786791677842</v>
@@ -33533,7 +33473,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.491316495156884</v>
+        <v>1.428411803614547</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.827871972257268</v>
@@ -33622,7 +33562,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.481499483133859</v>
+        <v>1.420192411768932</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.854191016382539</v>
@@ -33711,7 +33651,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.4676383688118</v>
+        <v>1.397229558771687</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.881366363285128</v>
@@ -33800,7 +33740,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.474796620198269</v>
+        <v>1.399922488416542</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.729797531959639</v>
@@ -33889,7 +33829,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.472093249854689</v>
+        <v>1.397313711937735</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.744435774223643</v>
@@ -33978,7 +33918,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.481259481604829</v>
+        <v>1.411679630269019</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.843848429753458</v>
@@ -34067,7 +34007,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.482777630660419</v>
+        <v>1.417739498114661</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.831919808863406</v>
@@ -34156,7 +34096,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.48820656320293</v>
+        <v>1.421568236711441</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.729463066580895</v>
@@ -34245,7 +34185,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.497536330359666</v>
+        <v>1.430783630690602</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.680029167923648</v>
@@ -34334,7 +34274,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.470038002290133</v>
+        <v>1.415517732222669</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.800849200608347</v>
@@ -34423,7 +34363,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.469162296874528</v>
+        <v>1.418700277523507</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.720423355252947</v>
@@ -34512,7 +34452,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.477040402929082</v>
+        <v>1.428277233446779</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.707803695002942</v>
@@ -34601,7 +34541,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.475722184796876</v>
+        <v>1.419942105208412</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.757167055061927</v>
